--- a/Project_1/Data/Statistics_for_500_matrices_of_dim_6.xlsx
+++ b/Project_1/Data/Statistics_for_500_matrices_of_dim_6.xlsx
@@ -32,7 +32,7 @@
     <t>Wishart</t>
   </si>
   <si>
-    <t>Diag_dom</t>
+    <t>Diagonally dominant</t>
   </si>
 </sst>
 </file>
